--- a/src/components/result/data.xlsx
+++ b/src/components/result/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:E178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1866 +436,4760 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>#</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Position</t>
+          <t>Country</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>GDP per capita</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>GDP</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Start date</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Salary</t>
+          <t>GNI per capita</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tiger Nixon</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>System Architect</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>$135,683</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2011-04-25</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>$320,800</t>
-        </is>
-      </c>
+          <t>86 billion</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Garrett Winters</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Accountant</t>
+          <t>Bermuda</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Tokyo</t>
+          <t>$110,869</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>7 billion</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2011-07-25</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>$170,750</t>
+          <t>$116,540</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ashton Cox</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Junior Technical Author</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>$99,152</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>504 billion</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2009-01-12</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>$86,000</t>
+          <t>$74,520</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cedric Kelly</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Senior Javascript Developer</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>$93,457</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>801 billion</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2012-03-29</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>$433,060</t>
+          <t>$90,360</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Airi Satou</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Accountant</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tokyo</t>
+          <t>$89,203</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>482 billion</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2008-11-28</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>$162,700</t>
+          <t>$84,090</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Brielle Williamson</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Integration Specialist</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>$72,794</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>397 billion</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2012-12-02</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>$372,000</t>
+          <t>$64,010</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Herrod Chandler</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sales Assistant</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>$69,288</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>23.3 trillion</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2012-08-06</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>$137,500</t>
+          <t>$70,430</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Rhona Davidson</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Integration Specialist</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Tokyo</t>
+          <t>$68,384</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>26 billion</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2010-10-14</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>$327,900</t>
+          <t>$64,410</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Colleen Hurst</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Javascript Developer</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>$67,803</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>398 billion</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2009-09-15</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>$205,500</t>
+          <t>$68,110</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sonya Frost</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Software Engineer</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>$61,276</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>180 billion</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2008-12-13</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>$103,600</t>
+          <t>$57,120</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Jena Gaines</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Office Manager</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>$60,239</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>636 billion</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2008-12-19</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>$90,560</t>
+          <t>$58,890</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Quinn Flynn</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Support Lead</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>$59,934</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>1.6 trillion</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2013-03-03</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>$342,000</t>
+          <t>$56,760</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Charde Marshall</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Regional Director</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>$58,061</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>1 trillion</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2008-10-16</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>$470,600</t>
+          <t>$56,370</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Haley Kennedy</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Senior Marketing Designer</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>$53,983</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>297 billion</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2012-12-18</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>$313,500</t>
+          <t>$53,660</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Tatyana Fitzpatrick</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Regional Director</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>$53,268</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>480 billion</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2010-03-17</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>$385,750</t>
+          <t>$52,210</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Michael Silva</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Marketing Designer</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>$52,051</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>2 trillion</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2012-11-27</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>$198,500</t>
+          <t>$48,310</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Paul Byrd</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Chief Financial Officer (CFO)</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>$51,768</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>594 billion</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2010-06-09</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>$725,000</t>
+          <t>$50,510</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Gloria Little</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Systems Administrator</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>$51,430</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>489 billion</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2009-04-10</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>$237,500</t>
+          <t>$49,560</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Bradley Greer</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Software Engineer</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>$50,802</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>4.3 trillion</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2012-10-13</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>$132,000</t>
+          <t>$51,040</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Dai Rios</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Personnel Lead</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>$49,661</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>369 billion</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2012-09-26</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>$217,500</t>
+          <t>$54,450</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Jenette Caldwell</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Development Lead</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>$48,802</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>250 billion</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2011-09-03</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>$345,000</t>
+          <t>$45,340</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Yuri Berry</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Chief Marketing Officer (CMO)</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>$47,334</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>3.1 trillion</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2009-06-25</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>$675,000</t>
+          <t>$45,380</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Caesar Vance</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Pre-Sales Support</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>$45,422</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2011-12-12</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>$106,450</t>
-        </is>
-      </c>
+          <t>30 billion</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Doris Wilder</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sales Assistant</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>$43,519</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>3 trillion</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2010-09-20</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>$85,600</t>
+          <t>$43,880</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Angelica Ramos</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Chief Executive Officer (CEO)</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>$43,048</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2009-10-09</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>$1,200,000</t>
-        </is>
-      </c>
+          <t>3 billion</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Gavin Joyce</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Developer</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>$39,285</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4.9 trillion</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2010-12-22</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>$92,575</t>
+          <t>$42,620</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Jennifer Chang</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Regional Director</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>$35,551</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>2.1 trillion</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2010-11-14</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>$357,650</t>
+          <t>$35,710</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Brenden Wagner</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Software Engineer</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>$34,758</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>1.8 trillion</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2011-06-07</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>$206,850</t>
+          <t>$34,980</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Fiona Green</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chief Operating Officer (COO)</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>$33,257</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>17 billion</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2010-03-11</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>$850,000</t>
+          <t>$30,560</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Shou Itou</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Regional Marketing</t>
+          <t>Brunei</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Tokyo</t>
+          <t>$31,723</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>2011-08-14</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>$163,000</t>
-        </is>
-      </c>
+          <t>14 billion</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Michelle House</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Integration Specialist</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>$30,798</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>28 billion</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2011-06-02</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>$95,400</t>
+          <t>$28,130</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Suki Burks</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Developer</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>$30,116</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>1.4 trillion</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2009-10-22</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>$114,500</t>
+          <t>$29,740</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Prescott Bartlett</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Technical Author</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>$29,201</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>62 billion</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2011-05-07</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>$145,000</t>
+          <t>$28,240</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Gavin Cortez</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Team Leader</t>
+          <t>The Bahamas</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>$28,239</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11 billion</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2008-10-26</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>$235,500</t>
+          <t>$27,220</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Martena Mccray</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Post-Sales support</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>$27,281</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>37 billion</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2011-03-09</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>$324,050</t>
+          <t>$25,970</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Unity Butler</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Marketing Designer</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>$26,378</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>282 billion</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2009-12-09</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>$85,675</t>
+          <t>$24,070</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Howard Hatfield</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Office Manager</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>$24,262</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>254 billion</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2008-12-16</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>$164,500</t>
+          <t>$23,730</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Hope Fuentes</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Secretary</t>
+          <t>Turks and Caicos Islands</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>$24,047</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>943 million</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2010-02-12</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>$109,850</t>
+          <t>$23,600</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Vivian Harrell</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Financial Controller</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>$23,586</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>2009-02-14</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>$452,500</t>
-        </is>
-      </c>
+          <t>834 billion</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Timothy Mooney</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Office Manager</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>$23,433</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>66 billion</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2008-12-11</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>$136,200</t>
+          <t>$21,610</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Jackson Bradshaw</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>$22,232</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>2008-09-26</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>$645,750</t>
-        </is>
-      </c>
+          <t>39 billion</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Olivia Liang</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Support Engineer</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>$21,088</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>117 billion</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2011-02-03</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>$234,500</t>
+          <t>$20,250</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Bruno Nash</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Software Engineer</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>$20,642</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>40 billion</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2011-05-03</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>$163,500</t>
+          <t>$19,370</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sakura Yamamoto</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Support Engineer</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Tokyo</t>
+          <t>$20,277</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>215 billion</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2009-08-19</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>$139,575</t>
+          <t>$20,140</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Thor Walton</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Developer</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>$18,773</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>182 billion</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2013-08-11</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>$98,540</t>
+          <t>$17,740</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Finn Camacho</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Support Engineer</t>
+          <t>Saint Kitts and Nevis</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>San Francisco</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+          <t>$18,230</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2009-07-07</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>$87,500</t>
+          <t>$18,560</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Serge Baldwin</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Data Coordinator</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>$17,841</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>679 billion</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2012-04-09</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>$138,575</t>
+          <t>$16,670</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Zenaida Frank</t>
+          <t>48</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Software Engineer</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>$17,399</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>69 billion</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2010-01-04</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>$125,250</t>
+          <t>$17,150</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Zorita Serrano</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Software Engineer</t>
+          <t>Barbados</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>$17,034</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>5 billion</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2012-06-01</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>$115,000</t>
+          <t>$16,720</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Jennifer Acosta</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Junior Javascript Developer</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>$17,021</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>59 billion</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2013-02-01</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>$75,650</t>
+          <t>$15,800</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Cara Stevens</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Sales Assistant</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>$16,503</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>317 billion</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2011-12-06</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>$145,600</t>
+          <t>$15,000</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Hermione Butler</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Regional Director</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>$16,439</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>2011-03-21</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>$356,250</t>
-        </is>
-      </c>
+          <t>88 billion</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Lael Greer</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Systems Administrator</t>
+          <t>Trinidad and Tobago</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>$15,243</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24 billion</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2009-02-27</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>$103,500</t>
+          <t>$15,070</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Jonas Alexander</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Developer</t>
+          <t>Antigua and Barbuda</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>$14,901</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>1 billion</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2010-07-14</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>$86,500</t>
+          <t>$14,900</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Shad Decker</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Regional Director</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>$14,862</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>284 billion</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2008-11-13</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>$183,000</t>
+          <t>$14,170</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Michael Bruce</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Javascript Developer</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>$14,516</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>64 billion</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2011-06-27</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>$183,000</t>
+          <t>$14,010</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Donna Snider</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Customer Support</t>
+          <t>Seychelles</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>$13,307</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>1 billion</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2011-01-25</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>$112,000</t>
+          <t>$13,260</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr"/>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>People's Republic of China</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>$12,556</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>17.7 trillion</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>$11,890</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>$12,509</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>64 billion</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>$12,310</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Nauru</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>$12,252</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>133 million</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>$19,470</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>$12,173</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.8 trillion</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>$11,600</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>$11,635</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>84 billion</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>$10,720</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>$11,371</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>373 billion</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>$10,930</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>$10,729</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>487 billion</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>$10,050</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Kazakhstan</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>$10,041</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>197 billion</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>$8,720</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Grenada</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>$9,929</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1 billion</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>$9,630</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>$9,926</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.3 trillion</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>$9,380</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>$9,587</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>819 billion</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>$9,830</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Saint Lucia</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>$9,571</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>$9,680</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Guyana</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>$9,375</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>8 billion</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>$9,380</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Montenegro</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>$9,367</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>6 billion</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>$9,300</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>$9,215</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>63 billion</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>$8,440</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Maldives</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>$8,995</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>5 billion</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>$8,400</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Mauritius</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>$8,812</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>12 billion</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>$10,860</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Dominican Republic</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>$8,604</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>94 billion</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>$8,220</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Equatorial Guinea</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>$8,462</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>12 billion</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>$5,810</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Gabon</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>$8,017</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>20 billion</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>$7,100</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Saint Vincent and the Grenadines</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>$7,997</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>$8,100</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Dominica</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>$7,560</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>554 million</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>$7,760</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>$7,519</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.6 trillion</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>$7,720</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>$7,348</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>18 billion</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>$6,940</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Belarus</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>$7,304</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>68 billion</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>$6,950</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>$7,233</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>506 billion</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>$7,260</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>$6,994</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>419 billion</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>$6,440</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Bosnia and Herzegovina</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>$6,916</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>23 billion</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>$6,770</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Republic of Macedonia</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>$6,721</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>14 billion</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>$6,130</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>$6,692</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>223 billion</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>$6,520</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Albania</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>$6,494</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>18 billion</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>$6,110</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>$6,131</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>314 billion</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>$6,160</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Libya</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>$6,018</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>43 billion</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>$8,430</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>$5,935</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>106 billion</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>$5,930</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>$5,400</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>39 billion</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>$5,340</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Azerbaijan</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>$5,384</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>55 billion</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>$4,880</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Moldova</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>$5,315</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>14 billion</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>$5,460</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Fiji</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>$5,086</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4 billion</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>$4,860</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Iraq</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>$5,048</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>208 billion</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>$5,040</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>$5,042</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>19 billion</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>$4,740</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Guatemala</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>$5,026</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>86 billion</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>$4,940</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Suriname</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>$4,836</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>3 billion</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>$4,440</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>$4,836</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>200 billion</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>$4,120</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Namibia</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>$4,729</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>12 billion</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>$4,550</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Armenia</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>$4,670</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>14 billion</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>$4,560</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>$4,587</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>15 billion</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>$4,800</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Mongolia</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>$4,535</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>15 billion</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>$3,760</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Belize</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>$4,420</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2 billion</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>$4,290</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>El Salvador</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>$4,409</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>29 billion</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>$4,140</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Jordan</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>$4,406</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>46 billion</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>$4,480</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>$4,292</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.2 trillion</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>$4,140</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Eswatini</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>$4,215</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>5 billion</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>$3,680</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Marshall Islands</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>$4,171</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>260 million</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>$5,050</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>$3,924</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>47 billion</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>$3,630</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Egypt</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>$3,876</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>404 billion</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>$3,510</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Sri Lanka</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>$3,815</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>89 billion</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>$3,820</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>$3,765</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>163 billion</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>$3,660</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Vietnam</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>$3,694</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>366 billion</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>$3,560</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Palestine</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>$3,664</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>$4,220</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>$3,549</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>394 billion</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>$3,640</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>$3,497</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>143 billion</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>$3,350</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Federated States of Micronesia</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>$3,477</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>404 million</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>$3,880</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Bolivia</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>$3,415</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>40 billion</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>$3,360</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Djibouti</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>$3,364</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>3 billion</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>$3,300</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Vanuatu</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>$3,127</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>956 million</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>$3,140</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Papua New Guinea</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>$2,916</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>27 billion</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>$2,790</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Honduras</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>$2,831</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>28 billion</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>$2,540</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Lebanon</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>$2,670</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>23 billion</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>$3,450</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Ivory Coast</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>$2,579</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>70 billion</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>$2,450</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Laos</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>$2,551</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>19 billion</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>$2,520</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>$2,503</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>416 billion</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>$2,620</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>São Tomé and Príncipe</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>$2,449</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>527 million</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>$2,280</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>$2,445</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>78 billion</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>$2,360</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Solomon Islands</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>$2,337</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2 billion</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>$2,300</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>$2,277</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>3.2 trillion</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>$2,170</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Republic of the Congo</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>$2,214</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>13 billion</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>$1,630</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Angola</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>$2,138</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>67 billion</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>$1,770</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Nicaragua</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>$2,091</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>14 billion</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>$2,010</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>$2,085</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>441 billion</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>$2,100</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Kenya</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>$2,007</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>110 billion</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>$2,010</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Uzbekistan</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>$1,983</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>69 billion</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>$1,960</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Haiti</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>$1,815</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>21 billion</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>$1,420</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Zimbabwe</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>$1,737</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>28 billion</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>$1,400</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Mauritania</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>$1,723</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>10 billion</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>$1,730</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>$1,662</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>45 billion</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>$1,590</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>$1,606</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>28 billion</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>$1,540</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Cambodia</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>$1,591</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>27 billion</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>$1,550</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>$1,538</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>348 billion</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>$1,500</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Comoros</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>$1,495</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1 billion</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>$1,460</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>East Timor</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>$1,458</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>4 billion</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>$1,940</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Benin</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>$1,428</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>17 billion</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>$1,370</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Kyrgyzstan</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>$1,276</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>9 billion</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>$1,180</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Nepal</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>$1,223</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>36 billion</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>$1,230</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Myanmar</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>$1,187</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>65 billion</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>$1,140</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Guinea</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>$1,174</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>16 billion</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>$1,010</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Lesotho</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>$1,166</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2 billion</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>$1,270</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Tanzania</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>$1,136</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>68 billion</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>$1,140</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Zambia</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>$1,121</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>22 billion</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>$1,040</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Togo</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>$992</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>8 billion</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>$980</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Ethiopia</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>$944</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>111 billion</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>$960</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Burkina Faso</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>$918</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>20 billion</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>$860</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Mali</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>$918</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>19 billion</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>$870</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Tajikistan</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>$897</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>9 billion</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>$1,150</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Uganda</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>$858</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>41 billion</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>$840</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>The Gambia</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>$836</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2 billion</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>$800</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Rwanda</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>$834</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>11 billion</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>$850</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Guinea-Bissau</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>$813</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2 billion</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>$780</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Sudan</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>$764</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>34 billion</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>$670</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Chad</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>$696</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>12 billion</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>$650</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Yemen</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>$691</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>22 billion</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Liberia</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>$673</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>4 billion</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>$620</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Malawi</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>$643</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>13 billion</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>$630</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Niger</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>$595</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>15 billion</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>$590</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Democratic Republic of the Congo</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>$584</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>55 billion</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>$580</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Sierra Leone</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>$516</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>4 billion</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>$510</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Madagascar</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>$515</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>14 billion</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>$500</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Central African Republic</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>$511</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>3 billion</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>$530</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Mozambique</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>$500</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>16 billion</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>$480</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Somalia</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>$446</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>8 billion</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>$450</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Burundi</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>$237</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>3 billion</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>$240</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
